--- a/results/CIFAR10/simplecnn/noise_0.1/Adam/runs_and_aggregate.xlsx
+++ b/results/CIFAR10/simplecnn/noise_0.1/Adam/runs_and_aggregate.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="aggregate" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="aggregate" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -487,7 +487,7 @@
         <v>46.7</v>
       </c>
       <c r="F2" t="n">
-        <v>35.45311570167542</v>
+        <v>30.6236538887024</v>
       </c>
     </row>
     <row r="3">
@@ -507,7 +507,7 @@
         <v>53.65</v>
       </c>
       <c r="F3" t="n">
-        <v>35.06864142417908</v>
+        <v>30.19364643096924</v>
       </c>
     </row>
     <row r="4">
@@ -527,7 +527,7 @@
         <v>56.63</v>
       </c>
       <c r="F4" t="n">
-        <v>35.16545414924622</v>
+        <v>30.04372143745422</v>
       </c>
     </row>
     <row r="5">
@@ -547,7 +547,7 @@
         <v>60.65</v>
       </c>
       <c r="F5" t="n">
-        <v>35.2673122882843</v>
+        <v>30.18267607688904</v>
       </c>
     </row>
     <row r="6">
@@ -567,7 +567,7 @@
         <v>62.72</v>
       </c>
       <c r="F6" t="n">
-        <v>35.20588541030884</v>
+        <v>30.10561490058899</v>
       </c>
     </row>
     <row r="7">
@@ -587,7 +587,7 @@
         <v>64.73</v>
       </c>
       <c r="F7" t="n">
-        <v>37.37175273895264</v>
+        <v>30.17365622520447</v>
       </c>
     </row>
     <row r="8">
@@ -607,7 +607,7 @@
         <v>67.39</v>
       </c>
       <c r="F8" t="n">
-        <v>36.81998777389526</v>
+        <v>30.17056465148925</v>
       </c>
     </row>
     <row r="9">
@@ -627,7 +627,7 @@
         <v>66.28</v>
       </c>
       <c r="F9" t="n">
-        <v>35.39201426506042</v>
+        <v>30.20643591880798</v>
       </c>
     </row>
     <row r="10">
@@ -647,7 +647,7 @@
         <v>68.95999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>35.3635082244873</v>
+        <v>29.94030141830444</v>
       </c>
     </row>
     <row r="11">
@@ -667,7 +667,7 @@
         <v>69.18000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>35.18661165237427</v>
+        <v>30.48698830604553</v>
       </c>
     </row>
     <row r="12">
@@ -687,7 +687,7 @@
         <v>68.7</v>
       </c>
       <c r="F12" t="n">
-        <v>35.31478667259216</v>
+        <v>29.7547173500061</v>
       </c>
     </row>
     <row r="13">
@@ -707,7 +707,7 @@
         <v>70.26000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>34.97665357589722</v>
+        <v>29.50939273834229</v>
       </c>
     </row>
     <row r="14">
@@ -727,7 +727,7 @@
         <v>72</v>
       </c>
       <c r="F14" t="n">
-        <v>34.41974854469299</v>
+        <v>29.48709893226624</v>
       </c>
     </row>
     <row r="15">
@@ -747,7 +747,7 @@
         <v>70.25</v>
       </c>
       <c r="F15" t="n">
-        <v>34.34262132644653</v>
+        <v>29.55073046684265</v>
       </c>
     </row>
     <row r="16">
@@ -767,7 +767,7 @@
         <v>72.56</v>
       </c>
       <c r="F16" t="n">
-        <v>34.49220108985901</v>
+        <v>30.92357540130615</v>
       </c>
     </row>
     <row r="17">
@@ -787,7 +787,7 @@
         <v>72.43000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>36.22723174095154</v>
+        <v>31.18457174301147</v>
       </c>
     </row>
     <row r="18">
@@ -807,7 +807,7 @@
         <v>72.28</v>
       </c>
       <c r="F18" t="n">
-        <v>36.43007469177246</v>
+        <v>30.46803021430969</v>
       </c>
     </row>
     <row r="19">
@@ -827,7 +827,7 @@
         <v>72.97</v>
       </c>
       <c r="F19" t="n">
-        <v>35.97084546089172</v>
+        <v>30.0278742313385</v>
       </c>
     </row>
     <row r="20">
@@ -847,7 +847,7 @@
         <v>72.81</v>
       </c>
       <c r="F20" t="n">
-        <v>35.215416431427</v>
+        <v>29.9869487285614</v>
       </c>
     </row>
     <row r="21">
@@ -867,7 +867,7 @@
         <v>73.61</v>
       </c>
       <c r="F21" t="n">
-        <v>35.14204454421997</v>
+        <v>30.31540775299072</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +938,7 @@
         <v>46.71</v>
       </c>
       <c r="F2" t="n">
-        <v>35.22193646430969</v>
+        <v>30.26604509353638</v>
       </c>
     </row>
     <row r="3">
@@ -958,7 +958,7 @@
         <v>53.88</v>
       </c>
       <c r="F3" t="n">
-        <v>35.71812438964844</v>
+        <v>30.0528838634491</v>
       </c>
     </row>
     <row r="4">
@@ -978,7 +978,7 @@
         <v>57.96</v>
       </c>
       <c r="F4" t="n">
-        <v>36.0008864402771</v>
+        <v>30.05424571037292</v>
       </c>
     </row>
     <row r="5">
@@ -998,7 +998,7 @@
         <v>60.77</v>
       </c>
       <c r="F5" t="n">
-        <v>36.24159479141235</v>
+        <v>30.03125309944153</v>
       </c>
     </row>
     <row r="6">
@@ -1018,7 +1018,7 @@
         <v>62.87</v>
       </c>
       <c r="F6" t="n">
-        <v>36.46952319145203</v>
+        <v>29.99723529815674</v>
       </c>
     </row>
     <row r="7">
@@ -1038,7 +1038,7 @@
         <v>64.70999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>36.49289989471436</v>
+        <v>30.04426193237305</v>
       </c>
     </row>
     <row r="8">
@@ -1058,7 +1058,7 @@
         <v>66.17</v>
       </c>
       <c r="F8" t="n">
-        <v>36.45485401153564</v>
+        <v>30.06783390045166</v>
       </c>
     </row>
     <row r="9">
@@ -1078,7 +1078,7 @@
         <v>67.76000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>36.82107424736023</v>
+        <v>30.04636740684509</v>
       </c>
     </row>
     <row r="10">
@@ -1098,7 +1098,7 @@
         <v>67.48999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>36.32778120040894</v>
+        <v>29.96776366233826</v>
       </c>
     </row>
     <row r="11">
@@ -1118,7 +1118,7 @@
         <v>69.51000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>36.36886143684387</v>
+        <v>30.32413291931152</v>
       </c>
     </row>
     <row r="12">
@@ -1138,7 +1138,7 @@
         <v>69.45999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>36.13311743736267</v>
+        <v>29.53144264221192</v>
       </c>
     </row>
     <row r="13">
@@ -1158,7 +1158,7 @@
         <v>70.26000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>35.69750452041626</v>
+        <v>29.52733945846558</v>
       </c>
     </row>
     <row r="14">
@@ -1178,7 +1178,7 @@
         <v>71.15000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>35.77005743980408</v>
+        <v>29.41553902626038</v>
       </c>
     </row>
     <row r="15">
@@ -1198,7 +1198,7 @@
         <v>70.87</v>
       </c>
       <c r="F15" t="n">
-        <v>36.97695374488831</v>
+        <v>29.52752542495728</v>
       </c>
     </row>
     <row r="16">
@@ -1218,7 +1218,7 @@
         <v>72.2</v>
       </c>
       <c r="F16" t="n">
-        <v>37.64068341255188</v>
+        <v>30.85455441474915</v>
       </c>
     </row>
     <row r="17">
@@ -1238,7 +1238,7 @@
         <v>71.70999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>37.34588098526001</v>
+        <v>30.97779631614685</v>
       </c>
     </row>
     <row r="18">
@@ -1258,7 +1258,7 @@
         <v>71.29000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>36.32099747657776</v>
+        <v>30.24300575256348</v>
       </c>
     </row>
     <row r="19">
@@ -1278,7 +1278,7 @@
         <v>73.40000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>36.19836759567261</v>
+        <v>30.25027918815613</v>
       </c>
     </row>
     <row r="20">
@@ -1298,7 +1298,7 @@
         <v>71.91</v>
       </c>
       <c r="F20" t="n">
-        <v>36.0645272731781</v>
+        <v>29.99231290817261</v>
       </c>
     </row>
     <row r="21">
@@ -1318,7 +1318,7 @@
         <v>71.59999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>36.26315546035767</v>
+        <v>30.2535879611969</v>
       </c>
     </row>
   </sheetData>
@@ -1389,7 +1389,7 @@
         <v>47.51</v>
       </c>
       <c r="F2" t="n">
-        <v>36.18894147872925</v>
+        <v>30.23923921585083</v>
       </c>
     </row>
     <row r="3">
@@ -1409,7 +1409,7 @@
         <v>52.74</v>
       </c>
       <c r="F3" t="n">
-        <v>36.22239446640015</v>
+        <v>30.0996105670929</v>
       </c>
     </row>
     <row r="4">
@@ -1429,7 +1429,7 @@
         <v>56.91</v>
       </c>
       <c r="F4" t="n">
-        <v>36.50078368186951</v>
+        <v>29.98058676719665</v>
       </c>
     </row>
     <row r="5">
@@ -1449,7 +1449,7 @@
         <v>59.27</v>
       </c>
       <c r="F5" t="n">
-        <v>36.19910645484924</v>
+        <v>30.19514441490173</v>
       </c>
     </row>
     <row r="6">
@@ -1469,7 +1469,7 @@
         <v>64.55</v>
       </c>
       <c r="F6" t="n">
-        <v>36.46027565002441</v>
+        <v>30.02770137786865</v>
       </c>
     </row>
     <row r="7">
@@ -1489,7 +1489,7 @@
         <v>64.95</v>
       </c>
       <c r="F7" t="n">
-        <v>36.48275399208069</v>
+        <v>30.17364478111267</v>
       </c>
     </row>
     <row r="8">
@@ -1509,7 +1509,7 @@
         <v>66.81999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>36.10167241096497</v>
+        <v>30.05354142189026</v>
       </c>
     </row>
     <row r="9">
@@ -1529,7 +1529,7 @@
         <v>66.56999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>36.35135221481323</v>
+        <v>30.03009390830994</v>
       </c>
     </row>
     <row r="10">
@@ -1549,7 +1549,7 @@
         <v>68.19</v>
       </c>
       <c r="F10" t="n">
-        <v>35.84418058395386</v>
+        <v>29.9560387134552</v>
       </c>
     </row>
     <row r="11">
@@ -1569,7 +1569,7 @@
         <v>69.06</v>
       </c>
       <c r="F11" t="n">
-        <v>35.9523069858551</v>
+        <v>30.39167523384094</v>
       </c>
     </row>
     <row r="12">
@@ -1589,7 +1589,7 @@
         <v>69.47</v>
       </c>
       <c r="F12" t="n">
-        <v>35.94921708106995</v>
+        <v>29.47680115699768</v>
       </c>
     </row>
     <row r="13">
@@ -1609,7 +1609,7 @@
         <v>69.13</v>
       </c>
       <c r="F13" t="n">
-        <v>35.93591141700745</v>
+        <v>29.51582789421081</v>
       </c>
     </row>
     <row r="14">
@@ -1629,7 +1629,7 @@
         <v>70.81999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>37.66243195533752</v>
+        <v>29.57950401306152</v>
       </c>
     </row>
     <row r="15">
@@ -1649,7 +1649,7 @@
         <v>69.81</v>
       </c>
       <c r="F15" t="n">
-        <v>37.02057600021362</v>
+        <v>29.52680897712708</v>
       </c>
     </row>
     <row r="16">
@@ -1669,7 +1669,7 @@
         <v>72.22</v>
       </c>
       <c r="F16" t="n">
-        <v>36.34791588783264</v>
+        <v>30.77045845985413</v>
       </c>
     </row>
     <row r="17">
@@ -1689,7 +1689,7 @@
         <v>72.31999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>36.17401933670044</v>
+        <v>30.95502185821533</v>
       </c>
     </row>
     <row r="18">
@@ -1709,7 +1709,7 @@
         <v>72.58</v>
       </c>
       <c r="F18" t="n">
-        <v>36.0930860042572</v>
+        <v>30.33430099487305</v>
       </c>
     </row>
     <row r="19">
@@ -1729,7 +1729,7 @@
         <v>73.02</v>
       </c>
       <c r="F19" t="n">
-        <v>36.19382381439209</v>
+        <v>29.94668078422546</v>
       </c>
     </row>
     <row r="20">
@@ -1749,7 +1749,7 @@
         <v>72.90000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>36.1041316986084</v>
+        <v>29.98090624809265</v>
       </c>
     </row>
     <row r="21">
@@ -1769,7 +1769,7 @@
         <v>73.33</v>
       </c>
       <c r="F21" t="n">
-        <v>36.49651694297791</v>
+        <v>30.32273626327514</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1840,7 @@
         <v>48.34</v>
       </c>
       <c r="F2" t="n">
-        <v>36.37236952781677</v>
+        <v>30.35609984397888</v>
       </c>
     </row>
     <row r="3">
@@ -1860,7 +1860,7 @@
         <v>55.08</v>
       </c>
       <c r="F3" t="n">
-        <v>36.34498882293701</v>
+        <v>30.00747847557068</v>
       </c>
     </row>
     <row r="4">
@@ -1880,7 +1880,7 @@
         <v>58.23</v>
       </c>
       <c r="F4" t="n">
-        <v>36.31205606460571</v>
+        <v>29.95002031326294</v>
       </c>
     </row>
     <row r="5">
@@ -1900,7 +1900,7 @@
         <v>61.32</v>
       </c>
       <c r="F5" t="n">
-        <v>36.51594948768616</v>
+        <v>29.98706316947937</v>
       </c>
     </row>
     <row r="6">
@@ -1920,7 +1920,7 @@
         <v>61.95</v>
       </c>
       <c r="F6" t="n">
-        <v>36.17572188377381</v>
+        <v>29.98426175117493</v>
       </c>
     </row>
     <row r="7">
@@ -1940,7 +1940,7 @@
         <v>64.98999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>36.58497953414917</v>
+        <v>29.98045587539673</v>
       </c>
     </row>
     <row r="8">
@@ -1960,7 +1960,7 @@
         <v>66.98</v>
       </c>
       <c r="F8" t="n">
-        <v>35.99954462051392</v>
+        <v>30.20563960075378</v>
       </c>
     </row>
     <row r="9">
@@ -1980,7 +1980,7 @@
         <v>67.39</v>
       </c>
       <c r="F9" t="n">
-        <v>35.60766196250916</v>
+        <v>30.16924118995667</v>
       </c>
     </row>
     <row r="10">
@@ -2000,7 +2000,7 @@
         <v>67.69</v>
       </c>
       <c r="F10" t="n">
-        <v>35.78348398208618</v>
+        <v>29.94273281097412</v>
       </c>
     </row>
     <row r="11">
@@ -2020,7 +2020,7 @@
         <v>68.72</v>
       </c>
       <c r="F11" t="n">
-        <v>35.50332999229431</v>
+        <v>30.35927248001098</v>
       </c>
     </row>
     <row r="12">
@@ -2040,7 +2040,7 @@
         <v>68.42</v>
       </c>
       <c r="F12" t="n">
-        <v>37.2265625</v>
+        <v>29.82886409759521</v>
       </c>
     </row>
     <row r="13">
@@ -2060,7 +2060,7 @@
         <v>69.92</v>
       </c>
       <c r="F13" t="n">
-        <v>37.29514575004578</v>
+        <v>29.45768189430237</v>
       </c>
     </row>
     <row r="14">
@@ -2080,7 +2080,7 @@
         <v>70.18000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>36.40852570533752</v>
+        <v>29.55277442932129</v>
       </c>
     </row>
     <row r="15">
@@ -2100,7 +2100,7 @@
         <v>70.79000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>36.27380514144897</v>
+        <v>29.50424647331237</v>
       </c>
     </row>
     <row r="16">
@@ -2120,7 +2120,7 @@
         <v>71.62</v>
       </c>
       <c r="F16" t="n">
-        <v>35.93023133277893</v>
+        <v>30.45827007293701</v>
       </c>
     </row>
     <row r="17">
@@ -2140,7 +2140,7 @@
         <v>72.26000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>36.10653448104858</v>
+        <v>31.10278964042664</v>
       </c>
     </row>
     <row r="18">
@@ -2160,7 +2160,7 @@
         <v>72.58</v>
       </c>
       <c r="F18" t="n">
-        <v>35.82508778572083</v>
+        <v>30.56849694252014</v>
       </c>
     </row>
     <row r="19">
@@ -2180,7 +2180,7 @@
         <v>73.28</v>
       </c>
       <c r="F19" t="n">
-        <v>36.10412979125977</v>
+        <v>30.90485525131226</v>
       </c>
     </row>
     <row r="20">
@@ -2200,7 +2200,7 @@
         <v>73.45999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>36.05048775672913</v>
+        <v>29.83219718933105</v>
       </c>
     </row>
     <row r="21">
@@ -2220,7 +2220,7 @@
         <v>73.03</v>
       </c>
       <c r="F21" t="n">
-        <v>36.28633260726929</v>
+        <v>30.13261842727661</v>
       </c>
     </row>
   </sheetData>
@@ -2291,7 +2291,7 @@
         <v>48.82</v>
       </c>
       <c r="F2" t="n">
-        <v>36.28873801231384</v>
+        <v>30.00175428390503</v>
       </c>
     </row>
     <row r="3">
@@ -2311,7 +2311,7 @@
         <v>53.69</v>
       </c>
       <c r="F3" t="n">
-        <v>36.38432264328003</v>
+        <v>29.77335023880005</v>
       </c>
     </row>
     <row r="4">
@@ -2331,7 +2331,7 @@
         <v>58.9</v>
       </c>
       <c r="F4" t="n">
-        <v>36.22170877456665</v>
+        <v>29.81047391891479</v>
       </c>
     </row>
     <row r="5">
@@ -2351,7 +2351,7 @@
         <v>62.24</v>
       </c>
       <c r="F5" t="n">
-        <v>36.14378643035889</v>
+        <v>29.70942378044128</v>
       </c>
     </row>
     <row r="6">
@@ -2371,7 +2371,7 @@
         <v>63.31</v>
       </c>
       <c r="F6" t="n">
-        <v>36.19849681854248</v>
+        <v>29.80865526199341</v>
       </c>
     </row>
     <row r="7">
@@ -2391,7 +2391,7 @@
         <v>65.5</v>
       </c>
       <c r="F7" t="n">
-        <v>35.66516304016113</v>
+        <v>29.77254438400269</v>
       </c>
     </row>
     <row r="8">
@@ -2411,7 +2411,7 @@
         <v>66.59</v>
       </c>
       <c r="F8" t="n">
-        <v>35.3569803237915</v>
+        <v>29.65243864059448</v>
       </c>
     </row>
     <row r="9">
@@ -2431,7 +2431,7 @@
         <v>66.65000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>35.3132758140564</v>
+        <v>29.68417978286743</v>
       </c>
     </row>
     <row r="10">
@@ -2451,7 +2451,7 @@
         <v>67.14</v>
       </c>
       <c r="F10" t="n">
-        <v>36.95037150382996</v>
+        <v>29.71243977546692</v>
       </c>
     </row>
     <row r="11">
@@ -2471,7 +2471,7 @@
         <v>67.45</v>
       </c>
       <c r="F11" t="n">
-        <v>37.3634033203125</v>
+        <v>29.99475908279419</v>
       </c>
     </row>
     <row r="12">
@@ -2491,7 +2491,7 @@
         <v>68.43000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>36.59867143630981</v>
+        <v>29.86923575401306</v>
       </c>
     </row>
     <row r="13">
@@ -2511,7 +2511,7 @@
         <v>69.76000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>35.99732089042664</v>
+        <v>29.85220336914062</v>
       </c>
     </row>
     <row r="14">
@@ -2531,7 +2531,7 @@
         <v>69.7</v>
       </c>
       <c r="F14" t="n">
-        <v>36.04093766212464</v>
+        <v>29.76237630844116</v>
       </c>
     </row>
     <row r="15">
@@ -2551,7 +2551,7 @@
         <v>70.8</v>
       </c>
       <c r="F15" t="n">
-        <v>35.81124758720398</v>
+        <v>29.76931834220886</v>
       </c>
     </row>
     <row r="16">
@@ -2571,7 +2571,7 @@
         <v>70.01000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>35.97049164772034</v>
+        <v>29.8070182800293</v>
       </c>
     </row>
     <row r="17">
@@ -2591,7 +2591,7 @@
         <v>70.87</v>
       </c>
       <c r="F17" t="n">
-        <v>36.10827970504761</v>
+        <v>29.87999200820923</v>
       </c>
     </row>
     <row r="18">
@@ -2611,7 +2611,7 @@
         <v>71.84</v>
       </c>
       <c r="F18" t="n">
-        <v>36.19938015937805</v>
+        <v>29.78793907165528</v>
       </c>
     </row>
     <row r="19">
@@ -2631,7 +2631,7 @@
         <v>71.86</v>
       </c>
       <c r="F19" t="n">
-        <v>36.09714984893799</v>
+        <v>30.07143807411194</v>
       </c>
     </row>
     <row r="20">
@@ -2651,7 +2651,7 @@
         <v>72.20999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>36.06486082077026</v>
+        <v>29.79715180397034</v>
       </c>
     </row>
     <row r="21">
@@ -2671,7 +2671,7 @@
         <v>71.39</v>
       </c>
       <c r="F21" t="n">
-        <v>36.18700814247131</v>
+        <v>30.08678841590881</v>
       </c>
     </row>
   </sheetData>
